--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2223"/>
+  <dimension ref="A1:G2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55332,10 +55332,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2116">
@@ -55369,10 +55367,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -55402,10 +55398,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2118">
@@ -55423,10 +55417,8 @@
       <c r="D2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
@@ -55456,10 +55448,8 @@
         </is>
       </c>
       <c r="F2119" t="inlineStr"/>
-      <c r="G2119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -55485,10 +55475,8 @@
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
-      <c r="G2120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2121">
@@ -55514,10 +55502,8 @@
       </c>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2122">
@@ -55543,10 +55529,8 @@
       </c>
       <c r="E2122" t="inlineStr"/>
       <c r="F2122" t="inlineStr"/>
-      <c r="G2122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -55572,10 +55556,8 @@
       </c>
       <c r="E2123" t="inlineStr"/>
       <c r="F2123" t="inlineStr"/>
-      <c r="G2123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2124">
@@ -55601,10 +55583,8 @@
       </c>
       <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
-      <c r="G2124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2125">
@@ -55622,10 +55602,8 @@
       <c r="D2125" t="inlineStr"/>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
-      <c r="G2125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2126">
@@ -55643,10 +55621,8 @@
       <c r="D2126" t="inlineStr"/>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
-      <c r="G2126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2127">
@@ -55672,146 +55648,148 @@
       </c>
       <c r="E2127" t="inlineStr"/>
       <c r="F2127" t="inlineStr"/>
-      <c r="G2127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2128" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUL/11</t>
+        </is>
+      </c>
       <c r="C2128" t="inlineStr"/>
-      <c r="D2128" t="inlineStr"/>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
       <c r="E2128" t="inlineStr"/>
       <c r="F2128" t="inlineStr"/>
-      <c r="G2128" t="inlineStr"/>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Monthly Budget StatementJUN</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr"/>
-      <c r="E2129" t="inlineStr"/>
-      <c r="F2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>$-316B</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>$-11B</t>
+        </is>
+      </c>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>$-350.0B</t>
+        </is>
+      </c>
       <c r="G2129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2130" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
-        </is>
-      </c>
+          <t>Sunday July 13 2025</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr"/>
       <c r="C2130" t="inlineStr"/>
-      <c r="D2130" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2130" t="inlineStr"/>
       <c r="E2130" t="inlineStr"/>
       <c r="F2130" t="inlineStr"/>
-      <c r="G2130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2130" t="inlineStr"/>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2131" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
-        </is>
-      </c>
+          <t>Monday July 14 2025</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr"/>
       <c r="C2131" t="inlineStr"/>
-      <c r="D2131" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2131" t="inlineStr"/>
       <c r="E2131" t="inlineStr"/>
       <c r="F2131" t="inlineStr"/>
-      <c r="G2131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2131" t="inlineStr"/>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
       <c r="D2132" t="inlineStr">
         <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2132" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2132" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+          <t>4.255%</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr"/>
+      <c r="F2132" t="inlineStr"/>
       <c r="G2132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2133" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr"/>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>4.145%</t>
+        </is>
+      </c>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr"/>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
+          <t>Tuesday July 15 2025</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr"/>
@@ -55824,65 +55802,97 @@
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Core Inflation Rate MoMJUN</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>4.255%</t>
-        </is>
-      </c>
-      <c r="E2135" t="inlineStr"/>
-      <c r="F2135" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Core Inflation Rate YoYJUN</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr"/>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2137" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJUN</t>
+        </is>
+      </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr"/>
-      <c r="E2137" t="inlineStr"/>
-      <c r="F2137" t="inlineStr"/>
-      <c r="G2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2137" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
@@ -55892,23 +55902,19 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Inflation Rate YoYJUN</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr"/>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2138" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr"/>
       <c r="F2138" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2138" t="inlineStr">
@@ -55925,24 +55931,24 @@
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>CPIJUN</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>321.465</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
       <c r="F2139" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55954,28 +55960,24 @@
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>CPI s.aJUN</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
       <c r="D2140" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>320.580</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr"/>
       <c r="F2140" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>321.2</t>
         </is>
       </c>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55987,108 +55989,92 @@
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>NY Empire State Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
       <c r="D2141" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="E2141" t="inlineStr"/>
       <c r="F2141" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Redbook YoYJUL/12</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
+      <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr">
-        <is>
-          <t>320.580</t>
-        </is>
-      </c>
+      <c r="D2143" t="inlineStr"/>
       <c r="E2143" t="inlineStr"/>
-      <c r="F2143" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2143" t="inlineStr"/>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>API Crude Oil Stock ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr"/>
       <c r="D2144" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>7.1M</t>
         </is>
       </c>
       <c r="E2144" t="inlineStr"/>
-      <c r="F2144" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="F2144" t="inlineStr"/>
       <c r="G2144" t="inlineStr">
         <is>
           <t>2</t>
@@ -56098,86 +56084,90 @@
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B2145" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUL/12</t>
-        </is>
-      </c>
+          <t>Wednesday July 16 2025</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
-      <c r="G2145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2145" t="inlineStr"/>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>MBA 30-Year Mortgage RateJUL/11</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>6.77%</t>
+        </is>
+      </c>
       <c r="E2146" t="inlineStr"/>
       <c r="F2146" t="inlineStr"/>
       <c r="G2146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>MBA Mortgage ApplicationsJUL/11</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2148" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJUL/11</t>
+        </is>
+      </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>281.6</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
       <c r="F2148" t="inlineStr"/>
-      <c r="G2148" t="inlineStr"/>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
@@ -56187,20 +56177,20 @@
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>MBA Mortgage Refinance IndexJUL/11</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>829.3</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr"/>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56212,13 +56202,13 @@
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>MBA Purchase IndexJUL/11</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>180.9</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
@@ -56232,72 +56222,88 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>PPI MoMJUN</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Core PPI MoMJUN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>829.3</t>
-        </is>
-      </c>
-      <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Core PPI YoYJUN</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr"/>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G2153" t="inlineStr">
         <is>
           <t>3</t>
@@ -56312,24 +56318,24 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>PPIJUN</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>148.072</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>148.9</t>
         </is>
       </c>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56341,7 +56347,7 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
@@ -56350,11 +56356,7 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E2155" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2155" t="inlineStr"/>
       <c r="F2155" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -56362,7 +56364,7 @@
       </c>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56374,19 +56376,19 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
       <c r="F2156" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G2156" t="inlineStr">
@@ -56403,19 +56405,19 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>PPI YoYJUN</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
       <c r="D2157" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E2157" t="inlineStr"/>
       <c r="F2157" t="inlineStr">
         <is>
-          <t>148.9</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G2157" t="inlineStr">
@@ -56427,82 +56429,82 @@
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2158" t="inlineStr"/>
       <c r="E2158" t="inlineStr"/>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>Industrial Production MoMJUN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2159" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2159" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>Capacity UtilizationJUN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2160" t="inlineStr"/>
+          <t>77.4%</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="F2160" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="G2160" t="inlineStr">
@@ -56519,16 +56521,24 @@
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production YoYJUN</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
-      <c r="D2161" t="inlineStr"/>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E2161" t="inlineStr"/>
-      <c r="F2161" t="inlineStr"/>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="G2161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56540,28 +56550,24 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Manufacturing Production MoMJUN</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2162" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr"/>
       <c r="F2162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56573,23 +56579,19 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Manufacturing Production YoYJUN</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E2163" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr"/>
       <c r="F2163" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G2163" t="inlineStr">
@@ -56601,84 +56603,72 @@
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>7.07M</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>EIA Gasoline Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr"/>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.658M</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr"/>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2165" t="inlineStr"/>
       <c r="G2165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>EIA Crude Oil Imports ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1.358M</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr">
         <is>
           <t>3</t>
@@ -56693,20 +56683,20 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr"/>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56718,20 +56708,20 @@
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>0.059M</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56743,13 +56733,13 @@
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>-0.825M</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
@@ -56768,13 +56758,13 @@
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>0.278M</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
@@ -56793,13 +56783,13 @@
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
@@ -56818,13 +56808,13 @@
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>-0.099M</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr"/>
@@ -56838,18 +56828,18 @@
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr"/>
       <c r="D2173" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2173" t="inlineStr"/>
@@ -56863,20 +56853,16 @@
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
-      <c r="D2174" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
+      <c r="D2174" t="inlineStr"/>
       <c r="E2174" t="inlineStr"/>
       <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr">
@@ -56888,89 +56874,93 @@
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D2175" t="inlineStr"/>
       <c r="E2175" t="inlineStr"/>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2176" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr"/>
       <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
+      <c r="D2176" t="inlineStr"/>
       <c r="E2176" t="inlineStr"/>
       <c r="F2176" t="inlineStr"/>
-      <c r="G2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2176" t="inlineStr"/>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
-      <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2178" t="inlineStr">
         <is>
           <t>2</t>
@@ -56980,15 +56970,31 @@
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B2179" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJUN</t>
+        </is>
+      </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
-      <c r="G2179" t="inlineStr"/>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
@@ -56998,28 +57004,24 @@
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E2180" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr"/>
       <c r="F2180" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G2180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57031,19 +57033,19 @@
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>Export Prices MoMJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr"/>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
       <c r="F2181" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G2181" t="inlineStr">
@@ -57060,19 +57062,19 @@
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>Import Prices MoMJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
@@ -57089,19 +57091,23 @@
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr"/>
       <c r="D2183" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2183" t="inlineStr">
         <is>
-          <t>230.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2183" t="inlineStr">
@@ -57118,24 +57124,24 @@
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
       <c r="D2184" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E2184" t="inlineStr"/>
       <c r="F2184" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57147,24 +57153,24 @@
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr"/>
       <c r="D2185" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E2185" t="inlineStr"/>
       <c r="F2185" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G2185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57176,20 +57182,16 @@
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr"/>
       <c r="D2186" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2186" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr"/>
       <c r="F2186" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -57197,7 +57199,7 @@
       </c>
       <c r="G2186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57209,19 +57211,19 @@
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr"/>
       <c r="D2187" t="inlineStr">
         <is>
-          <t>1965K</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E2187" t="inlineStr"/>
       <c r="F2187" t="inlineStr">
         <is>
-          <t>1970.0K</t>
+          <t>237.0K</t>
         </is>
       </c>
       <c r="G2187" t="inlineStr">
@@ -57238,21 +57240,17 @@
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>Export Prices YoYJUN</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr"/>
       <c r="D2188" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr">
         <is>
           <t>3</t>
@@ -57267,21 +57265,17 @@
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>Import Prices YoYJUN</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr"/>
       <c r="D2189" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2189" t="inlineStr"/>
       <c r="G2189" t="inlineStr">
         <is>
           <t>3</t>
@@ -57296,21 +57290,17 @@
       </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C2190" t="inlineStr"/>
       <c r="D2190" t="inlineStr">
         <is>
-          <t>235.5K</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E2190" t="inlineStr"/>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
+      <c r="F2190" t="inlineStr"/>
       <c r="G2190" t="inlineStr">
         <is>
           <t>3</t>
@@ -57325,13 +57315,13 @@
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUL</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr"/>
       <c r="D2191" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E2191" t="inlineStr"/>
@@ -57350,13 +57340,13 @@
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C2192" t="inlineStr"/>
       <c r="D2192" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E2192" t="inlineStr"/>
@@ -57375,17 +57365,21 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUL</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr"/>
       <c r="D2193" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2193" t="inlineStr"/>
-      <c r="F2193" t="inlineStr"/>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2193" t="inlineStr">
         <is>
           <t>3</t>
@@ -57400,17 +57394,21 @@
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUL</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr"/>
       <c r="D2194" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2194" t="inlineStr"/>
-      <c r="F2194" t="inlineStr"/>
+      <c r="F2194" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2194" t="inlineStr">
         <is>
           <t>3</t>
@@ -57420,78 +57418,86 @@
     <row r="2195">
       <c r="A2195" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUL</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr"/>
       <c r="D2195" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2196">
       <c r="A2196" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2196" t="inlineStr"/>
       <c r="D2196" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2196" t="inlineStr"/>
       <c r="F2196" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G2196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2197" t="inlineStr"/>
       <c r="D2197" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2197" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2197" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2197" t="inlineStr">
@@ -57503,88 +57509,72 @@
     <row r="2198">
       <c r="A2198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAY</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2198" t="inlineStr"/>
       <c r="D2198" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E2198" t="inlineStr"/>
-      <c r="F2198" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2198" t="inlineStr"/>
       <c r="G2198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJUL</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2199" t="inlineStr"/>
       <c r="D2199" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2199" t="inlineStr"/>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2200" t="inlineStr"/>
       <c r="D2200" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2200" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>4.275%</t>
+        </is>
+      </c>
+      <c r="E2200" t="inlineStr"/>
+      <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr">
         <is>
           <t>3</t>
@@ -57594,18 +57584,18 @@
     <row r="2201">
       <c r="A2201" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2201" t="inlineStr"/>
       <c r="D2201" t="inlineStr">
         <is>
-          <t>53Bcf</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E2201" t="inlineStr"/>
@@ -57619,18 +57609,18 @@
     <row r="2202">
       <c r="A2202" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr"/>
       <c r="D2202" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E2202" t="inlineStr"/>
@@ -57644,43 +57634,43 @@
     <row r="2203">
       <c r="A2203" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2203" t="inlineStr"/>
       <c r="D2203" t="inlineStr">
         <is>
-          <t>4.275%</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2203" t="inlineStr"/>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/17</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2204" t="inlineStr"/>
       <c r="D2204" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2204" t="inlineStr"/>
@@ -57694,18 +57684,18 @@
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/17</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr"/>
       <c r="D2205" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2205" t="inlineStr"/>
@@ -57719,115 +57709,131 @@
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAY</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr"/>
       <c r="D2206" t="inlineStr">
         <is>
-          <t>$-7.8B</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E2206" t="inlineStr"/>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2207" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr"/>
       <c r="C2207" t="inlineStr"/>
-      <c r="D2207" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
+      <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr"/>
       <c r="F2207" t="inlineStr"/>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2207" t="inlineStr"/>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAY</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr"/>
       <c r="D2208" t="inlineStr">
         <is>
-          <t>$-14.2B</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>1.37M</t>
+        </is>
+      </c>
       <c r="G2208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/16</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr"/>
       <c r="D2209" t="inlineStr">
         <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E2209" t="inlineStr"/>
-      <c r="F2209" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E2209" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2210" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelJUN</t>
+        </is>
+      </c>
       <c r="C2210" t="inlineStr"/>
-      <c r="D2210" t="inlineStr"/>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>-2%</t>
+        </is>
+      </c>
       <c r="E2210" t="inlineStr"/>
-      <c r="F2210" t="inlineStr"/>
-      <c r="G2210" t="inlineStr"/>
+      <c r="F2210" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G2210" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
@@ -57837,52 +57843,52 @@
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr"/>
       <c r="D2211" t="inlineStr">
         <is>
-          <t>1.394M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2211" t="inlineStr"/>
       <c r="F2211" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr"/>
       <c r="D2212" t="inlineStr">
         <is>
-          <t>1.256M</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>1.30M</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr">
         <is>
-          <t>1.29M</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G2212" t="inlineStr">
@@ -57894,58 +57900,58 @@
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr"/>
       <c r="D2213" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2213" t="inlineStr"/>
       <c r="F2213" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G2213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr"/>
       <c r="D2214" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E2214" t="inlineStr"/>
       <c r="F2214" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57957,28 +57963,24 @@
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr"/>
       <c r="D2215" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2215" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>64.8</t>
+        </is>
+      </c>
+      <c r="E2215" t="inlineStr"/>
       <c r="F2215" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="G2215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57990,19 +57992,19 @@
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr"/>
       <c r="D2216" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2216" t="inlineStr"/>
       <c r="F2216" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G2216" t="inlineStr">
@@ -58014,26 +58016,18 @@
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr"/>
-      <c r="D2217" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
+      <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr"/>
-      <c r="F2217" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr">
         <is>
           <t>3</t>
@@ -58043,26 +58037,18 @@
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr"/>
-      <c r="D2218" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
+      <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr"/>
-      <c r="F2218" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
+      <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr">
         <is>
           <t>3</t>
@@ -58072,99 +58058,28 @@
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2219" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr"/>
       <c r="C2219" t="inlineStr"/>
-      <c r="D2219" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr"/>
-      <c r="F2219" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2219" t="inlineStr"/>
+      <c r="G2219" t="inlineStr"/>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2220" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
+          <t>Monday July 21 2025</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr"/>
       <c r="C2220" t="inlineStr"/>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr"/>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2221" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C2221" t="inlineStr"/>
-      <c r="D2221" t="inlineStr"/>
-      <c r="E2221" t="inlineStr"/>
-      <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2222" t="inlineStr"/>
-      <c r="C2222" t="inlineStr"/>
-      <c r="D2222" t="inlineStr"/>
-      <c r="E2222" t="inlineStr"/>
-      <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr"/>
-    </row>
-    <row r="2223">
-      <c r="A2223" t="inlineStr">
-        <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2223" t="inlineStr"/>
-      <c r="C2223" t="inlineStr"/>
-      <c r="D2223" t="inlineStr"/>
-      <c r="E2223" t="inlineStr"/>
-      <c r="F2223" t="inlineStr"/>
-      <c r="G2223" t="inlineStr"/>
+      <c r="G2220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -56689,7 +56689,11 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="E2170" t="inlineStr"/>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F2170" t="inlineStr">
         <is>
           <t>2.5%</t>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2261"/>
+  <dimension ref="A1:G2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59084,6 +59084,48 @@
         </is>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr"/>
+      <c r="D2262" t="inlineStr"/>
+      <c r="E2262" t="inlineStr"/>
+      <c r="F2262" t="inlineStr"/>
+      <c r="G2262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr"/>
+      <c r="D2263" t="inlineStr"/>
+      <c r="E2263" t="inlineStr"/>
+      <c r="F2263" t="inlineStr"/>
+      <c r="G2263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -56416,7 +56416,11 @@
           <t>Baker Hughes Oil Rig CountJUL/11</t>
         </is>
       </c>
-      <c r="C2159" t="inlineStr"/>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
       <c r="D2159" t="inlineStr">
         <is>
           <t>425</t>
@@ -56441,7 +56445,11 @@
           <t>Baker Hughes Total Rigs CountJUL/11</t>
         </is>
       </c>
-      <c r="C2160" t="inlineStr"/>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
       <c r="D2160" t="inlineStr">
         <is>
           <t>539</t>
@@ -59007,7 +59015,11 @@
         </is>
       </c>
       <c r="C2257" t="inlineStr"/>
-      <c r="D2257" t="inlineStr"/>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
       <c r="E2257" t="inlineStr"/>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
@@ -59028,7 +59040,11 @@
         </is>
       </c>
       <c r="C2258" t="inlineStr"/>
-      <c r="D2258" t="inlineStr"/>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
       <c r="E2258" t="inlineStr"/>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-21.xlsx
@@ -56474,7 +56474,11 @@
           <t>Monthly Budget StatementJUN</t>
         </is>
       </c>
-      <c r="C2161" t="inlineStr"/>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>$27B</t>
+        </is>
+      </c>
       <c r="D2161" t="inlineStr">
         <is>
           <t>$-316B</t>
